--- a/schema.xlsx
+++ b/schema.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>正餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -464,25 +464,25 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
